--- a/data/resources_1.xlsx
+++ b/data/resources_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB77E08-F842-B742-835F-258F652B12E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD271010-28B5-2B49-8C88-4172FAA9256A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="460" windowWidth="23620" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="4760" windowWidth="20840" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -558,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -569,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>0.8</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -602,7 +602,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -613,7 +613,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>

--- a/data/resources_1.xlsx
+++ b/data/resources_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD271010-28B5-2B49-8C88-4172FAA9256A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C241D84-90E5-E743-8CC9-231703C8BF87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="4760" windowWidth="20840" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="460" windowWidth="23460" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/resources_1.xlsx
+++ b/data/resources_1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663BD2C5-2D9F-064B-A189-C61DB3B4E248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741A7CA2-C41E-804E-AA75-65470D02CDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="460" windowWidth="17680" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="1600" windowWidth="18660" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -515,7 +516,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -550,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -561,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -572,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -583,7 +584,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -594,7 +595,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -605,7 +606,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
@@ -616,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -627,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>0.3</v>
+        <v>5.5</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -638,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>0.4</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -649,7 +650,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="1">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -660,7 +661,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="1">
-        <v>0.6</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -671,7 +672,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="1">
-        <v>0.7</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -682,7 +683,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="1">
-        <v>0.8</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
@@ -693,7 +694,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -704,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
@@ -715,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -726,7 +727,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="1">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>31</v>
@@ -740,7 +741,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="1">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -754,7 +755,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="1">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>33</v>
@@ -768,7 +769,7 @@
         <v>44</v>
       </c>
       <c r="B22" s="1">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>34</v>
@@ -790,4 +791,124 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15676288-45D3-8248-9A26-5A6FBB2D4BA4}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/resources_1.xlsx
+++ b/data/resources_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741A7CA2-C41E-804E-AA75-65470D02CDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DE2500-54D9-A947-A67D-C643CD824EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="1600" windowWidth="18660" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="1600" windowWidth="13800" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -628,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -639,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -650,7 +650,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -661,7 +661,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -672,7 +672,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -683,7 +683,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
@@ -694,7 +694,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -705,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
@@ -716,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -727,7 +727,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>31</v>
@@ -741,7 +741,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -755,7 +755,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>33</v>
@@ -769,7 +769,7 @@
         <v>44</v>
       </c>
       <c r="B22" s="1">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>34</v>
@@ -795,7 +795,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15676288-45D3-8248-9A26-5A6FBB2D4BA4}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A21"/>
@@ -803,109 +803,172 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>5.5</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/resources_1.xlsx
+++ b/data/resources_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DE2500-54D9-A947-A67D-C643CD824EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4163680-92A2-F240-A7B9-E8A8FB605198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="1600" windowWidth="13800" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -551,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -562,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -573,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -584,7 +584,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -595,7 +595,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -606,7 +606,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
